--- a/estudiantes_curso_solo_nombres.xlsx
+++ b/estudiantes_curso_solo_nombres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UAO 2.0\Especialización AI\1er Semestre Esp\Herramientas Matemáticas y Computacionales para Inteligencia Artificial\Taller - Ejercicios en Clase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8A967E-C988-4088-9D1A-060183521AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC066805-22BF-4588-91B7-11A8FAB6154A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,6 +56,9 @@
     <t>JESSICA LORENA ARIAS RIOS</t>
   </si>
   <si>
+    <t>Jhonatan Giraldo</t>
+  </si>
+  <si>
     <t>JONATHAN GIL PINEDA</t>
   </si>
   <si>
@@ -117,9 +120,6 @@
   </si>
   <si>
     <t>JUAN CARLOS PINZON CAMPO</t>
-  </si>
-  <si>
-    <t>JHONATAN GIRALDO</t>
   </si>
 </sst>
 </file>
@@ -136,14 +136,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -484,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47127F3F-43D7-4EAA-9A6C-65BD8EB0F26C}">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,120 +537,114 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
+      <c r="A28" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
+      <c r="A29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
